--- a/data-folder/Données_groupe_13.xlsx
+++ b/data-folder/Données_groupe_13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données13" sheetId="2" r:id="rId1"/>
@@ -520,13 +520,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17.119999999999997</v>
+        <v>16.04</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,24 +542,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>29.609999999999996</v>
+        <v>17.96</v>
       </c>
       <c r="B20">
         <v>84</v>
       </c>
       <c r="C20">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>60.419999999999995</v>
+        <v>23.45</v>
       </c>
       <c r="B21">
         <v>97</v>
       </c>
       <c r="C21">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,24 +575,24 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>72.2</v>
+        <v>22.74</v>
       </c>
       <c r="B23">
         <v>102</v>
       </c>
       <c r="C23">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>90.63</v>
+        <v>42.3</v>
       </c>
       <c r="B24">
         <v>88</v>
       </c>
       <c r="C24">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>36.870000000000005</v>
+        <v>16.96</v>
       </c>
       <c r="B30">
         <v>97</v>
       </c>
       <c r="C30">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,24 +740,24 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>28.92</v>
+        <v>5.36</v>
       </c>
       <c r="B38">
         <v>124</v>
       </c>
       <c r="C38">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>26.450000000000003</v>
+        <v>18.57</v>
       </c>
       <c r="B39">
         <v>80</v>
       </c>
       <c r="C39">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,57 +773,57 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>47.83</v>
+        <v>18.47</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
       <c r="C41">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11.21</v>
+        <v>6.08</v>
       </c>
       <c r="B42">
         <v>92</v>
       </c>
       <c r="C42">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>16.05</v>
+        <v>7.8100000000000005</v>
       </c>
       <c r="B43">
         <v>102</v>
       </c>
       <c r="C43">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>64.83</v>
+        <v>15.939999999999998</v>
       </c>
       <c r="B44">
         <v>110</v>
       </c>
       <c r="C44">
-        <v>161</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>16.900000000000002</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="B45">
         <v>91</v>
       </c>
       <c r="C45">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,24 +839,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>98.929999999999993</v>
+        <v>74.67</v>
       </c>
       <c r="B47">
         <v>70</v>
       </c>
       <c r="C47">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>97.65</v>
+        <v>49.32</v>
       </c>
       <c r="B48">
         <v>86</v>
       </c>
       <c r="C48">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,13 +872,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>77.61</v>
+        <v>54.510000000000005</v>
       </c>
       <c r="B50">
         <v>74</v>
       </c>
       <c r="C50">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,24 +905,24 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>39.83</v>
+        <v>12.09</v>
       </c>
       <c r="B53">
         <v>109</v>
       </c>
       <c r="C53">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52.370000000000005</v>
+        <v>27.91</v>
       </c>
       <c r="B54">
         <v>89</v>
       </c>
       <c r="C54">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,13 +949,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>19.98</v>
+        <v>18.86</v>
       </c>
       <c r="B57">
         <v>61</v>
       </c>
       <c r="C57">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,90 +971,90 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>72.180000000000007</v>
+        <v>49.94</v>
       </c>
       <c r="B59">
         <v>76</v>
       </c>
       <c r="C59">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>40.71</v>
+        <v>10.08</v>
       </c>
       <c r="B60">
         <v>109</v>
       </c>
       <c r="C60">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>78.73</v>
+        <v>48.05</v>
       </c>
       <c r="B61">
         <v>79</v>
       </c>
       <c r="C61">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10.86</v>
+        <v>9.82</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>91.210000000000008</v>
+        <v>42.01</v>
       </c>
       <c r="B63">
         <v>90</v>
       </c>
       <c r="C63">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>99.17</v>
+        <v>24.310000000000002</v>
       </c>
       <c r="B64">
         <v>107</v>
       </c>
       <c r="C64">
-        <v>178</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>86.460000000000008</v>
+        <v>25.28</v>
       </c>
       <c r="B65">
         <v>104</v>
       </c>
       <c r="C65">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>39.4</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="B66">
         <v>112</v>
       </c>
       <c r="C66">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,35 +1081,35 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>31.180000000000003</v>
+        <v>12.2</v>
       </c>
       <c r="B69">
         <v>104</v>
       </c>
       <c r="C69">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>65.3</v>
+        <v>60.69</v>
       </c>
       <c r="B70">
         <v>60</v>
       </c>
       <c r="C70">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>73</v>
+        <v>32.269999999999996</v>
       </c>
       <c r="B71">
         <v>94</v>
       </c>
       <c r="C71">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,13 +1136,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>12.659999999999998</v>
+        <v>7.59</v>
       </c>
       <c r="B74">
         <v>98</v>
       </c>
       <c r="C74">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,24 +1158,24 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>19.139999999999997</v>
+        <v>11.76</v>
       </c>
       <c r="B76">
         <v>94</v>
       </c>
       <c r="C76">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>51.83</v>
+        <v>21.34</v>
       </c>
       <c r="B77">
         <v>96</v>
       </c>
       <c r="C77">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,13 +1191,13 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>25.86</v>
+        <v>9.42</v>
       </c>
       <c r="B79">
         <v>105</v>
       </c>
       <c r="C79">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,24 +1224,24 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>78.25</v>
+        <v>4.08</v>
       </c>
       <c r="B82">
         <v>123</v>
       </c>
       <c r="C82">
-        <v>184</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>58.91</v>
+        <v>5.83</v>
       </c>
       <c r="B83">
         <v>124</v>
       </c>
       <c r="C83">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,46 +1257,46 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>27.310000000000002</v>
+        <v>15.879999999999999</v>
       </c>
       <c r="B85">
         <v>87</v>
       </c>
       <c r="C85">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>69.8</v>
+        <v>43.47</v>
       </c>
       <c r="B86">
         <v>80</v>
       </c>
       <c r="C86">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>53.010000000000005</v>
+        <v>51.6</v>
       </c>
       <c r="B87">
         <v>57</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>75.08</v>
+        <v>73.429999999999993</v>
       </c>
       <c r="B88">
         <v>57</v>
       </c>
       <c r="C88">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,13 +1312,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>31.09</v>
+        <v>15.09</v>
       </c>
       <c r="B90">
         <v>95</v>
       </c>
       <c r="C90">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
